--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javad\OneDrive - University of Calgary\Tiered Pricing\Python codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048CE21DE75AE5BDE58E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E2D30FA6-0FB3-4910-ADB9-A7727C8711B0}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC1048CE21DE75AE5BDE58E6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FEA2303-4F50-4E8D-B726-3E7D6FF21314}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Canada</t>
   </si>
@@ -51,7 +51,10 @@
     <t>S. Korea</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>Spain 1</t>
+  </si>
+  <si>
+    <t>Spain 2</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -381,7 +384,7 @@
     <col min="7" max="7" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -409,8 +412,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -438,8 +444,11 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.45</v>
       </c>
@@ -467,8 +476,11 @@
       <c r="I3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.4</v>
       </c>
@@ -490,8 +502,11 @@
       <c r="H4">
         <v>0.53549999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.32</v>
       </c>
@@ -508,7 +523,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.25</v>
       </c>
@@ -522,7 +537,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.2</v>
       </c>
@@ -533,7 +548,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.17</v>
       </c>
@@ -544,7 +559,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.12</v>
       </c>
@@ -555,7 +570,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -566,7 +581,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.04</v>
       </c>
@@ -577,7 +592,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.02</v>
       </c>
@@ -588,22 +603,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>0.3</v>
       </c>
